--- a/fixed_income_analysis/^TNX_predicted_results.xlsx
+++ b/fixed_income_analysis/^TNX_predicted_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyin1\OneDrive\uni-hers\Projects and Competitions\Citi 24\Citi-Comp-24\fixed_income_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C208B3-F7C4-41B7-94D6-8EAA6A04107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41EB94A-78F0-4BB1-812D-276DC09EF8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dates</t>
   </si>
@@ -36,16 +36,13 @@
   <si>
     <t>Bull</t>
   </si>
-  <si>
-    <t>FUDGE FILL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-C09]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -59,6 +56,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,10 +99,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +408,7 @@
   <dimension ref="A1:E540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="D533" sqref="D533"/>
+      <selection activeCell="K529" sqref="K529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9315,88 +9313,145 @@
       <c r="A524" s="3">
         <v>45394</v>
       </c>
+      <c r="B524">
+        <v>4.3785831187371613</v>
+      </c>
+      <c r="C524">
+        <v>4.3824959578049247</v>
+      </c>
+      <c r="D524">
+        <v>4.3785831187371613</v>
+      </c>
+      <c r="E524">
+        <v>4.3785831187371613</v>
+      </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
         <v>45401</v>
       </c>
+      <c r="C525">
+        <v>4.3417203945629579</v>
+      </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
         <v>45408</v>
       </c>
+      <c r="C526">
+        <v>4.2971956798038677</v>
+      </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
         <v>45415</v>
       </c>
+      <c r="C527">
+        <v>4.2527935703593567</v>
+      </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
         <v>45422</v>
       </c>
+      <c r="C528">
+        <v>4.2091832176722654</v>
+      </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <v>45429</v>
       </c>
+      <c r="C529">
+        <v>4.1664103157720058</v>
+      </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
         <v>45436</v>
       </c>
+      <c r="C530">
+        <v>4.1244655690183016</v>
+      </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <v>45443</v>
       </c>
+      <c r="C531">
+        <v>4.0833337441924966</v>
+      </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
         <v>45450</v>
       </c>
+      <c r="C532">
+        <v>4.042999173542162</v>
+      </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <v>45457</v>
       </c>
+      <c r="C533">
+        <v>4.0034464137284287</v>
+      </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
         <v>45464</v>
       </c>
+      <c r="C534">
+        <v>3.9646603118876058</v>
+      </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <v>45471</v>
       </c>
+      <c r="C535">
+        <v>3.9266260078768078</v>
+      </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
         <v>45478</v>
       </c>
+      <c r="C536">
+        <v>3.8893289294800182</v>
+      </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
         <v>45485</v>
       </c>
+      <c r="C537">
+        <v>3.852754786924804</v>
+      </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
         <v>45492</v>
       </c>
+      <c r="C538">
+        <v>3.8168895674185488</v>
+      </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
         <v>45499</v>
       </c>
+      <c r="C539">
+        <v>3.7817195297809132</v>
+      </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
         <v>45506</v>
       </c>
-      <c r="C540" t="s">
-        <v>5</v>
+      <c r="C540">
+        <v>3.7570162212985072</v>
       </c>
     </row>
   </sheetData>
